--- a/OrderData/notcompleted.xlsx
+++ b/OrderData/notcompleted.xlsx
@@ -1,133 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF6178D5-02F2-46B4-872F-314154CFA108}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>instru1</t>
-  </si>
-  <si>
-    <t>instru2</t>
-  </si>
-  <si>
-    <t>instru3</t>
-  </si>
-  <si>
-    <t>instru4</t>
-  </si>
-  <si>
-    <t>Sldelta</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>strike_price1</t>
-  </si>
-  <si>
-    <t>strike_price2</t>
-  </si>
-  <si>
-    <t>strike_price3</t>
-  </si>
-  <si>
-    <t>strike_price4</t>
-  </si>
-  <si>
-    <t>expiry1</t>
-  </si>
-  <si>
-    <t>expiry2</t>
-  </si>
-  <si>
-    <t>expiry3</t>
-  </si>
-  <si>
-    <t>expiry4</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>isop</t>
-  </si>
-  <si>
-    <t>BUY/SELL1</t>
-  </si>
-  <si>
-    <t>BUY/SELL2</t>
-  </si>
-  <si>
-    <t>BUY/SELL3</t>
-  </si>
-  <si>
-    <t>BUY/SELL4</t>
-  </si>
-  <si>
-    <t>PE/CE1</t>
-  </si>
-  <si>
-    <t>PE/CE2</t>
-  </si>
-  <si>
-    <t>PE/CE3</t>
-  </si>
-  <si>
-    <t>PE/CE4</t>
-  </si>
-  <si>
-    <t>Quantity1</t>
-  </si>
-  <si>
-    <t>Quantity2</t>
-  </si>
-  <si>
-    <t>Quantity3</t>
-  </si>
-  <si>
-    <t>Quantity4</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -146,22 +46,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -427,127 +318,1481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" customWidth="1"/>
-    <col min="18" max="18" width="11.77734375" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="9.77734375" customWidth="1"/>
-    <col min="25" max="25" width="10.5546875" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" customWidth="1"/>
-    <col min="27" max="27" width="9.77734375" customWidth="1"/>
-    <col min="28" max="28" width="10.109375" customWidth="1"/>
+    <col width="10.6640625" customWidth="1" style="1" min="2" max="3"/>
+    <col width="12.109375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13.21875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="15.5546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12.44140625" customWidth="1" style="1" min="7" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="12.109375" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.109375" customWidth="1" style="1" min="11" max="11"/>
+    <col width="10.33203125" customWidth="1" style="1" min="12" max="12"/>
+    <col width="10" customWidth="1" style="1" min="13" max="13"/>
+    <col width="10.88671875" customWidth="1" style="1" min="15" max="15"/>
+    <col width="12.44140625" customWidth="1" style="1" min="17" max="17"/>
+    <col width="11.77734375" customWidth="1" style="1" min="18" max="18"/>
+    <col width="12.33203125" customWidth="1" style="1" min="19" max="19"/>
+    <col width="12" customWidth="1" style="1" min="20" max="20"/>
+    <col width="9.77734375" customWidth="1" style="1" min="21" max="21"/>
+    <col width="10.5546875" customWidth="1" style="1" min="25" max="25"/>
+    <col width="10.109375" customWidth="1" style="1" min="26" max="26"/>
+    <col width="9.77734375" customWidth="1" style="1" min="27" max="27"/>
+    <col width="10.109375" customWidth="1" style="1" min="28" max="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>instru1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>instru2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>instru3</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>instru4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>BUY/SELL1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUY/SELL2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUY/SELL3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>BUY/SELL4</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>PE/CE1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>PE/CE2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>PE/CE3</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>PE/CE4</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Sldelta</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>strike_price1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>strike_price2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>strike_price3</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>strike_price4</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>expiry1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>expiry2</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>expiry3</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>expiry4</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Quantity1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Quantity2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Quantity3</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Quantity4</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>isop</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>36000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>36000</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>NRML</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>15.70000000000027</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>36000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>36000</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>21-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>21-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>NRML</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>52.19999999999982</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>36000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>36000</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>NRML</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13.85000000000036</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>36000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>36000</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>NRML</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>26.89999999999964</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>36000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>36000</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>NRML</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6.950000000000273</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>36000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>36000</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>NRML</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>4.700000000000273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>36000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>36000</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>NRML</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>15.70000000000027</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>36000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>36000</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>NRML</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15.70000000000027</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
+      <c r="P10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>17000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>17500</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>36000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>36000</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>14-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>10.15000000000009</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>17</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2021-10-12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>18200</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>18000</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>28-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>28-10-2021 Oct</t>
+        </is>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-77.8</v>
       </c>
     </row>
   </sheetData>

--- a/OrderData/notcompleted.xlsx
+++ b/OrderData/notcompleted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amarendra singh\AppData\Local\Programs\python_project\algoapp\OrderData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93C026E1-819D-47F5-9279-CBA03800A7A9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C98193E-E809-4CAD-8631-173C06B0B1C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/OrderData/notcompleted.xlsx
+++ b/OrderData/notcompleted.xlsx
@@ -1,139 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amarendra singh\AppData\Local\Programs\python_project\algoapp\OrderData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C98193E-E809-4CAD-8631-173C06B0B1C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>instru1</t>
-  </si>
-  <si>
-    <t>instru2</t>
-  </si>
-  <si>
-    <t>instru3</t>
-  </si>
-  <si>
-    <t>instru4</t>
-  </si>
-  <si>
-    <t>BUY/SELL1</t>
-  </si>
-  <si>
-    <t>BUY/SELL2</t>
-  </si>
-  <si>
-    <t>BUY/SELL3</t>
-  </si>
-  <si>
-    <t>BUY/SELL4</t>
-  </si>
-  <si>
-    <t>PE/CE1</t>
-  </si>
-  <si>
-    <t>PE/CE2</t>
-  </si>
-  <si>
-    <t>PE/CE3</t>
-  </si>
-  <si>
-    <t>PE/CE4</t>
-  </si>
-  <si>
-    <t>Sldelta</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>strike_price1</t>
-  </si>
-  <si>
-    <t>strike_price2</t>
-  </si>
-  <si>
-    <t>strike_price3</t>
-  </si>
-  <si>
-    <t>strike_price4</t>
-  </si>
-  <si>
-    <t>expiry1</t>
-  </si>
-  <si>
-    <t>expiry2</t>
-  </si>
-  <si>
-    <t>expiry3</t>
-  </si>
-  <si>
-    <t>expiry4</t>
-  </si>
-  <si>
-    <t>Quantity1</t>
-  </si>
-  <si>
-    <t>Quantity2</t>
-  </si>
-  <si>
-    <t>Quantity3</t>
-  </si>
-  <si>
-    <t>Quantity4</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>isop</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,22 +46,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -433,140 +318,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.77734375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.77734375" style="1" customWidth="1"/>
-    <col min="28" max="29" width="10.109375" style="1" customWidth="1"/>
+    <col width="9.21875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="19.21875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="10.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12.109375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13.21875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="15.5546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12.44140625" customWidth="1" style="1" min="7" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="12.109375" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.109375" customWidth="1" style="1" min="11" max="11"/>
+    <col width="10.33203125" customWidth="1" style="1" min="12" max="12"/>
+    <col width="10" customWidth="1" style="1" min="13" max="13"/>
+    <col width="10.88671875" customWidth="1" style="1" min="15" max="15"/>
+    <col width="12.44140625" customWidth="1" style="1" min="17" max="17"/>
+    <col width="11.77734375" customWidth="1" style="1" min="18" max="18"/>
+    <col width="12.33203125" customWidth="1" style="1" min="19" max="19"/>
+    <col width="12" customWidth="1" style="1" min="20" max="20"/>
+    <col width="17.44140625" customWidth="1" style="1" min="21" max="21"/>
+    <col width="21.77734375" customWidth="1" style="1" min="24" max="24"/>
+    <col width="10.5546875" customWidth="1" style="1" min="25" max="25"/>
+    <col width="10.109375" customWidth="1" style="1" min="26" max="26"/>
+    <col width="9.77734375" customWidth="1" style="1" min="27" max="27"/>
+    <col width="10.109375" customWidth="1" style="1" min="28" max="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>instru1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>instru2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>instru3</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>instru4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>BUY/SELL1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUY/SELL2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUY/SELL3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>BUY/SELL4</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>PE/CE1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>PE/CE2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>PE/CE3</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>PE/CE4</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Sldelta</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>strike_price1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>strike_price2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>strike_price3</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>strike_price4</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>expiry1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>expiry2</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>expiry3</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>expiry4</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Quantity1</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Quantity2</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Quantity3</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Quantity4</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>isop</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-11-01 13:43:10.338276</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>39700</v>
+      </c>
+      <c r="R2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>39800</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>03-11-2021 Nov</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>03-11-2021 Nov</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>KiteFree</t>
+        </is>
+      </c>
+      <c r="AE2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
+      <c r="AF2" t="n">
+        <v>54.19999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>